--- a/627502_staircase tutorial_2022-09-07_19h16.13.xlsx
+++ b/627502_staircase tutorial_2022-09-07_19h16.13.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishitakalra/Desktop/PSY310 LAB IN PSYCHOLOGY /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01DE6A6-5CA1-A545-8DD3-8BF796E1208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF2051-65E1-9144-9EA8-C5F62967C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22160" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - 627502_staircase tuto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -75,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,13 +201,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -220,6 +261,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,885 +358,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11423425196850394"/>
-          <c:y val="0.15601851851851853"/>
-          <c:w val="0.83157830271216093"/>
-          <c:h val="0.7250080198308545"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1 - 627502_staircase tuto'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trials.intensity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet 1 - 627502_staircase tuto'!$A$3:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet 1 - 627502_staircase tuto'!$B$3:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0057598000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0028791000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0057598000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0086421999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0086421999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0086421999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0115262000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0115262000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0144119000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0144119000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0172992E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0201883000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0230789999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0230789999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0259712999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0288653000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0288653000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0317609999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0346583E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0375573999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0375573999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0404579999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0404579999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0404579999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0433604E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0462644000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0491701E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0520774999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0520774999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0520774999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0520774999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.0549864999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0578972999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.0608096999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.0637237000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.0637237000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0666395000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.0666395000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.0695569000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.0695569000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.0695569000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.0724760000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.0724760000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0724760000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.0695569000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.0724760000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.0724760000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.0753967999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.0753967999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.0783192999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.0812435000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.0841693E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.0870968000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.0870968000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.0870968000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.0900260000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.0900260000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.0900260000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.0929569000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.0958894999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.0988237999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.1017597999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.1046974000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.1076367999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.1105777999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.1135205000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.1164649999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.1164649999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.1164649999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.1135205000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.1164649999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.1194111E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.1223589E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.1223589E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.1253083999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.1282596E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.1282596E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.1312125E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.1341671999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.1371235000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.1400815000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.1430412000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.1430412000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.1460025999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.1489658000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5FC-644E-A426-75E9C8FD949A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1297223983"/>
-        <c:axId val="1297225631"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1297223983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1297225631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1297225631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1297223983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2065,6 +1233,884 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12498001002886687"/>
+          <c:y val="0.13005482249872352"/>
+          <c:w val="0.84630246520389774"/>
+          <c:h val="0.71946321975239813"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - 627502_staircase tuto'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trials.intensity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 1 - 627502_staircase tuto'!$A$3:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1 - 627502_staircase tuto'!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0057598000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0028791000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0057598000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0086421999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0086421999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0086421999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0115262000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0115262000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0144119000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0144119000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0172992E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0201883000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0230789999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0230789999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0259712999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0288653000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0288653000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0317609999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0346583E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0375573999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0375573999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0404579999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0404579999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0404579999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0433604E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0462644000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0491701E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0520774999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0520774999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0520774999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0520774999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0549864999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0578972999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0608096999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0637237000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0637237000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0666395000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0666395000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0695569000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0695569000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0695569000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0724760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0724760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0724760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0695569000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0724760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0724760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0753967999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0753967999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0783192999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0812435000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0841693E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0870968000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0870968000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0870968000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0900260000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0900260000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0900260000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0929569000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0958894999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0988237999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1017597999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1046974000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.1076367999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.1105777999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1135205000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.1164649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.1164649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.1164649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1135205000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1164649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.1194111E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1223589E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.1223589E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.1253083999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.1282596E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1282596E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.1312125E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.1341671999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.1371235000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.1400815000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.1430412000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1430412000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1460025999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1489658000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89CB-BA46-9644-77E7F54459C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1310831007"/>
+        <c:axId val="1311194319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1310831007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311194319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1311194319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310831007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3185,42 +3231,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCC266C-B915-7B00-5256-CD83C25D6168}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -3248,247 +3258,101 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158661E3-3042-4828-3AAE-3E97CA4CE844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.54609</cdr:x>
-      <cdr:y>0.78698</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55861</cdr:x>
-      <cdr:y>0.85009</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592138</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1450654" cy="270908"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E0645B-8FE8-49D0-F5A7-12B137344BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868045B2-B9DF-694E-CEB2-52BB879757AA}"/>
             </a:ext>
           </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4476750" y="3378200"/>
-          <a:ext cx="102657" cy="270908"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7815263" y="5397500"/>
+          <a:ext cx="1450654" cy="270908"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:fillRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="overflow" vert="horz" wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.48412</cdr:x>
-      <cdr:y>0.78698</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.49664</cdr:x>
-      <cdr:y>0.85009</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2751E488-23BD-AF81-58B6-111208E67887}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3968750" y="3378200"/>
-          <a:ext cx="102657" cy="270908"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="overflow" vert="horz" wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.41286</cdr:x>
-      <cdr:y>0.91361</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.57397</cdr:x>
-      <cdr:y>0.95968</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ADC8BC-32ED-D149-3037-FF7F163A8E5D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3384550" y="5372100"/>
-          <a:ext cx="1320800" cy="270908"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:lstStyle/>
+        <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -3520,66 +3384,66 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>TRIAL INSTENSITY </a:t>
+            <a:t>NUMBER OF TRIALS</a:t>
           </a:r>
         </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02168</cdr:x>
-      <cdr:y>0.35855</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.05472</cdr:x>
-      <cdr:y>0.61193</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>339726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366176" cy="1325043"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4C7B5F-9E73-8FC5-7B96-DB67C635B5B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D719D-AFC8-19BC-02F0-00C388C0B211}"/>
             </a:ext>
           </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
-          <a:off x="-431799" y="2717800"/>
-          <a:ext cx="1489895" cy="270908"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3908417" y="3605204"/>
+          <a:ext cx="1325043" cy="366176"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:fillRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+        <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="overflow" vert="horz" wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:lstStyle/>
+        <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -3611,16 +3475,17 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>NUMBER OF TRAILS </a:t>
+            <a:t>TRIALS INTENSITY</a:t>
           </a:r>
         </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4882,10 +4747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4898,9 +4763,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5112,7 +4977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -5126,7 +4991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -5136,11 +5001,15 @@
       <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="10">
+        <f>AVERAGE(B3:B102)</f>
+        <v>5.0688342939999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -5154,7 +5023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -5168,7 +5037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -5182,7 +5051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -5196,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -5210,7 +5079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -5224,7 +5093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -5238,7 +5107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -5252,7 +5121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -5266,7 +5135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -5280,7 +5149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -5294,7 +5163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -5308,7 +5177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -5322,7 +5191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -5560,7 +5429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -5574,7 +5443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -5588,7 +5457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -5602,7 +5471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -5616,7 +5485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -5630,7 +5499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -5644,7 +5513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -5658,7 +5527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -5672,7 +5541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -5686,7 +5555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -5700,7 +5569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -5714,7 +5583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -5728,7 +5597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -5742,7 +5611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -5756,7 +5625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -5769,8 +5638,9 @@
       <c r="D63" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>61</v>
       </c>
